--- a/Expense - Gokul.xlsx
+++ b/Expense - Gokul.xlsx
@@ -8,25 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vasanth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7ABCE1-0366-47DC-BA69-CA479AA280CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0826E750-38BF-4B76-8F1C-2478CE1B9FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{A294C88D-E8FE-41BE-BDC9-7981945DD3D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{A294C88D-E8FE-41BE-BDC9-7981945DD3D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Engangement" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Expenditure" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Expenditure" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Engangement!$A$2:$B$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Expenditure!$A$1:$E$66</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Expenditure!$A$2:$C$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Expenditure!$A$1:$E$64</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Expenditure!$A$2:$C$64</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Expenditure!$D$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Expenditure!$D$2:$D$66</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Expenditure!$D$2:$D$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="76" r:id="rId4"/>
+    <pivotCache cacheId="20" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,32 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Amma</t>
-  </si>
-  <si>
-    <t>Gokul</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
   <si>
     <t>Mahal</t>
   </si>
   <si>
-    <t>Extra Mummy</t>
-  </si>
-  <si>
-    <t>Ring Amma</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -72,9 +48,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>To be paid</t>
   </si>
   <si>
@@ -96,9 +69,6 @@
     <t>Got</t>
   </si>
   <si>
-    <t>Amazon pay credit card july</t>
-  </si>
-  <si>
     <t>Home Advance</t>
   </si>
   <si>
@@ -136,6 +106,51 @@
   </si>
   <si>
     <t>PF</t>
+  </si>
+  <si>
+    <t>Iyer</t>
+  </si>
+  <si>
+    <t>Beeda</t>
+  </si>
+  <si>
+    <t>Melam</t>
+  </si>
+  <si>
+    <t>Samayal</t>
+  </si>
+  <si>
+    <t>Icecream</t>
+  </si>
+  <si>
+    <t>Beautician</t>
+  </si>
+  <si>
+    <t>Poo Malai</t>
+  </si>
+  <si>
+    <t>Van, car</t>
+  </si>
+  <si>
+    <t>Mutton kari</t>
+  </si>
+  <si>
+    <t>Chicken Kari</t>
+  </si>
+  <si>
+    <t>Photo video</t>
+  </si>
+  <si>
+    <t>Cylinder</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Groceries</t>
+  </si>
+  <si>
+    <t>Ornament</t>
   </si>
 </sst>
 </file>
@@ -177,18 +192,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -224,13 +233,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -241,136 +246,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
     </dxf>
@@ -1013,7 +902,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5057776" y="395287"/>
+              <a:off x="5162551" y="395287"/>
               <a:ext cx="3609975" cy="1033463"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1048,7 +937,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gokul vasanth" refreshedDate="44794.375062847219" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="87" xr:uid="{644EAF68-1F28-416F-A051-7E491DD78820}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gokul vasanth" refreshedDate="44798.882614351853" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85" xr:uid="{644EAF68-1F28-416F-A051-7E491DD78820}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E1048576" sheet="Expenditure"/>
   </cacheSource>
@@ -1061,11 +950,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2005-09-01T00:00:00" maxDate="2022-09-06T00:00:00" count="8">
         <s v="Sep"/>
         <s v="Aug"/>
         <s v="Oct"/>
+        <d v="2022-09-05T00:00:00"/>
         <m/>
+        <d v="2005-09-01T00:00:00" u="1"/>
         <s v="Jun" u="1"/>
         <s v="May" u="1"/>
       </sharedItems>
@@ -1089,7 +980,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="87">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="85">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -1175,140 +1066,140 @@
     <n v="15301"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Mahal"/>
+    <n v="5000"/>
+    <n v="115000"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Iyer"/>
+    <n v="0"/>
+    <n v="10000"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Beeda"/>
+    <n v="0"/>
+    <n v="5500"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Melam"/>
+    <n v="0"/>
+    <n v="22000"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Samayal"/>
+    <n v="0"/>
+    <n v="65000"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Icecream"/>
+    <n v="0"/>
+    <n v="12500"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Beautician"/>
+    <n v="0"/>
+    <n v="20000"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Poo Malai"/>
+    <n v="0"/>
+    <n v="15000"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Van, car"/>
+    <n v="0"/>
+    <n v="30000"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Mutton kari"/>
+    <n v="0"/>
+    <n v="40000"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Chicken Kari"/>
+    <n v="0"/>
+    <n v="14000"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Photo video"/>
+    <n v="0"/>
+    <n v="50000"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Cylinder"/>
+    <n v="0"/>
+    <n v="7200"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Room"/>
+    <n v="1000"/>
+    <n v="8000"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Groceries"/>
+    <n v="0"/>
+    <n v="130000"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Ornament"/>
+    <n v="0"/>
+    <n v="100000"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="3"/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="0"/>
     <x v="3"/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="0"/>
     <x v="3"/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="0"/>
     <x v="3"/>
     <m/>
     <m/>
@@ -1316,385 +1207,371 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
     <m/>
     <m/>
     <m/>
@@ -1703,7 +1580,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="L10:O12" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1714,13 +1591,15 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
+      <items count="8">
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
         <item x="1"/>
         <item x="0"/>
         <item x="2"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -1756,7 +1635,7 @@
     <dataField name="Sum of To be paid" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="38">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1773,8 +1652,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="G10:J14" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="G10:J15" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="3">
@@ -1784,13 +1663,15 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="3"/>
+      <items count="8">
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
         <item x="1"/>
         <item x="0"/>
         <item x="2"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -1801,7 +1682,7 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="5">
     <i>
       <x/>
       <x v="3"/>
@@ -1811,6 +1692,9 @@
     </i>
     <i r="1">
       <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -1832,7 +1716,7 @@
     <dataField name="Sum of To be paid" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="39">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2144,86 +2028,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70434676-2F99-416C-818A-EF60EE8E3961}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4">
-        <f>SUM(B3:B1048576)</f>
-        <v>138800</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:B6" xr:uid="{35F630AE-5019-46B3-8DE2-F720F2421F95}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93AF4E1-5F2D-4DF4-8F31-38A7292D9786}">
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2231,10 +2037,10 @@
   <cols>
     <col min="1" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.85546875" customWidth="1"/>
@@ -2245,899 +2051,1011 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2">
+        <v>160000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>16000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>67323</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="H10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>19586</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J11" s="3">
+        <v>86919</v>
+      </c>
+      <c r="L11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="M11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="N11" s="3">
+        <v>160000</v>
+      </c>
+      <c r="O11" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>86919</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>180858</v>
+      </c>
+      <c r="L12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3">
+        <v>160000</v>
+      </c>
+      <c r="O12" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>15301</v>
+      </c>
+      <c r="H13" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>19586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>115000</v>
+      </c>
+      <c r="H14" s="14">
+        <v>44809</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>644200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>32000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>931563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>22000</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D19" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="6">
-        <v>10789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E19" s="2">
+        <v>12500</v>
+      </c>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="6">
-        <v>6445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E20" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="6">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="E21" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="6">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="E22" s="2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
-        <v>200000</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6">
-        <v>160000</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="E23" s="2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6">
-        <v>16000</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="E24" s="2">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="E25" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="6">
-        <v>67323</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="E26" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="6">
-        <v>19586</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="7">
-        <v>16000</v>
-      </c>
-      <c r="J11" s="7">
-        <v>86919</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="7">
-        <v>160000</v>
-      </c>
-      <c r="O11" s="7">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="E28" s="2">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="6">
-        <v>86919</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="7">
-        <v>10000</v>
-      </c>
-      <c r="J12" s="7">
-        <v>180858</v>
-      </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="7">
-        <v>160000</v>
-      </c>
-      <c r="O12" s="7">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>15301</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>19586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="7">
-        <v>26000</v>
-      </c>
-      <c r="J14" s="7">
-        <v>287363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="E29" s="2">
+        <v>100000</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
+      <c r="A78" s="1"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
+      <c r="A79" s="1"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
+      <c r="A81" s="1"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
+      <c r="A82" s="1"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
+      <c r="A83" s="1"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
+      <c r="A85" s="1"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E66" xr:uid="{5FE2128D-45E5-45B9-8AB1-C1883682EE45}"/>
-  <mergeCells count="1">
-    <mergeCell ref="C25:C26"/>
-  </mergeCells>
+  <autoFilter ref="A1:E64" xr:uid="{5FE2128D-45E5-45B9-8AB1-C1883682EE45}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926E680D-2939-46DA-9A07-C9B0343659EC}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>22594</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Expense - Gokul.xlsx
+++ b/Expense - Gokul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vasanth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0826E750-38BF-4B76-8F1C-2478CE1B9FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480BBEB3-A1D8-4873-B4E0-AB898A7D0D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{A294C88D-E8FE-41BE-BDC9-7981945DD3D4}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId2"/>
+    <pivotCache cacheId="28" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
   <si>
     <t>Mahal</t>
   </si>
@@ -150,7 +150,7 @@
     <t>Groceries</t>
   </si>
   <si>
-    <t>Ornament</t>
+    <t>Ornament/chain</t>
   </si>
 </sst>
 </file>
@@ -259,7 +259,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
     </dxf>
@@ -937,7 +949,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gokul vasanth" refreshedDate="44798.882614351853" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85" xr:uid="{644EAF68-1F28-416F-A051-7E491DD78820}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gokul vasanth" refreshedDate="44798.890223726848" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85" xr:uid="{644EAF68-1F28-416F-A051-7E491DD78820}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E1048576" sheet="Expenditure"/>
   </cacheSource>
@@ -1173,34 +1185,34 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <s v="Ornament"/>
+    <s v="Ornament/chain"/>
     <n v="0"/>
     <n v="100000"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
     <m/>
     <m/>
     <m/>
@@ -1580,7 +1592,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="L10:O12" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1635,7 +1647,7 @@
     <dataField name="Sum of To be paid" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1652,7 +1664,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="G10:J15" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1716,7 +1728,7 @@
     <dataField name="Sum of To be paid" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2031,7 +2043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93AF4E1-5F2D-4DF4-8F31-38A7292D9786}">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2645,45 +2659,29 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="4">
-        <v>44809</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="4">
-        <v>44809</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="4">
-        <v>44809</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="4">
-        <v>44809</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>

--- a/Expense - Gokul.xlsx
+++ b/Expense - Gokul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vasanth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480BBEB3-A1D8-4873-B4E0-AB898A7D0D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A87E503-F372-4FD0-8B42-730F82B3263B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{A294C88D-E8FE-41BE-BDC9-7981945DD3D4}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId2"/>
+    <pivotCache cacheId="4" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -259,13 +259,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
     </dxf>
@@ -915,7 +909,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="5162551" y="395287"/>
-              <a:ext cx="3609975" cy="1033463"/>
+              <a:ext cx="3810000" cy="1033463"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -949,7 +943,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gokul vasanth" refreshedDate="44798.890223726848" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85" xr:uid="{644EAF68-1F28-416F-A051-7E491DD78820}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gokul vasanth" refreshedDate="44798.899537037039" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85" xr:uid="{644EAF68-1F28-416F-A051-7E491DD78820}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E1048576" sheet="Expenditure"/>
   </cacheSource>
@@ -964,13 +958,13 @@
     <cacheField name="Date" numFmtId="0">
       <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2005-09-01T00:00:00" maxDate="2022-09-06T00:00:00" count="8">
         <s v="Sep"/>
+        <s v="Oct"/>
         <s v="Aug"/>
-        <s v="Oct"/>
         <d v="2022-09-05T00:00:00"/>
         <m/>
         <d v="2005-09-01T00:00:00" u="1"/>
+        <s v="May" u="1"/>
         <s v="Jun" u="1"/>
-        <s v="May" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Criteria" numFmtId="0">
@@ -1009,7 +1003,7 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
     <s v="rent"/>
     <n v="0"/>
     <n v="16000"/>
@@ -1023,28 +1017,28 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="Saravana"/>
     <n v="0"/>
     <n v="200000"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="Nithya akka"/>
     <n v="0"/>
     <n v="200000"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="PF"/>
     <n v="160000"/>
     <n v="0"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="Home Broker commission"/>
     <n v="16000"/>
     <n v="0"/>
@@ -1058,14 +1052,14 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Amazon credit card"/>
     <n v="0"/>
     <n v="19586"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="Pers credit card"/>
     <n v="0"/>
     <n v="86919"/>
@@ -1592,7 +1586,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="L10:O12" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1604,12 +1598,12 @@
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="8">
+        <item m="1" x="6"/>
         <item m="1" x="7"/>
-        <item m="1" x="6"/>
         <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
         <item m="1" x="5"/>
         <item x="3"/>
       </items>
@@ -1647,7 +1641,7 @@
     <dataField name="Sum of To be paid" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1664,7 +1658,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="G10:J15" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1676,12 +1670,12 @@
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="8">
+        <item m="1" x="6"/>
         <item m="1" x="7"/>
-        <item m="1" x="6"/>
         <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
         <item m="1" x="5"/>
         <item x="3"/>
       </items>
@@ -1728,7 +1722,7 @@
     <dataField name="Sum of To be paid" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2044,7 +2038,7 @@
   <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -2325,7 +2319,7 @@
         <v>10000</v>
       </c>
       <c r="J12" s="3">
-        <v>180858</v>
+        <v>164858</v>
       </c>
       <c r="L12" t="s">
         <v>5</v>
@@ -2360,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>19586</v>
+        <v>35586</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">

--- a/Expense - Gokul.xlsx
+++ b/Expense - Gokul.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vasanth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A87E503-F372-4FD0-8B42-730F82B3263B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BC957A-9A64-4C82-B264-1C79ECBCCA4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{A294C88D-E8FE-41BE-BDC9-7981945DD3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Expenditure!$A$1:$E$64</definedName>
@@ -23,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId2"/>
+    <pivotCache cacheId="16" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
   <si>
     <t>Mahal</t>
   </si>
@@ -151,6 +152,12 @@
   </si>
   <si>
     <t>Ornament/chain</t>
+  </si>
+  <si>
+    <t>Renovation backside</t>
+  </si>
+  <si>
+    <t>Decoration</t>
   </si>
 </sst>
 </file>
@@ -259,7 +266,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
     </dxf>
@@ -943,7 +962,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gokul vasanth" refreshedDate="44798.899537037039" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85" xr:uid="{644EAF68-1F28-416F-A051-7E491DD78820}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gokul vasanth" refreshedDate="44801.526963425924" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85" xr:uid="{644EAF68-1F28-416F-A051-7E491DD78820}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E1048576" sheet="Expenditure"/>
   </cacheSource>
@@ -963,8 +982,8 @@
         <d v="2022-09-05T00:00:00"/>
         <m/>
         <d v="2005-09-01T00:00:00" u="1"/>
+        <s v="Jun" u="1"/>
         <s v="May" u="1"/>
-        <s v="Jun" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Criteria" numFmtId="0">
@@ -1061,8 +1080,8 @@
     <x v="0"/>
     <x v="2"/>
     <s v="Pers credit card"/>
+    <n v="86919"/>
     <n v="0"/>
-    <n v="86919"/>
   </r>
   <r>
     <x v="0"/>
@@ -1174,21 +1193,21 @@
     <x v="3"/>
     <s v="Groceries"/>
     <n v="0"/>
-    <n v="130000"/>
+    <n v="50000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Renovation backside"/>
+    <n v="0"/>
+    <n v="17500"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <s v="Ornament/chain"/>
+    <s v="Decoration"/>
     <n v="0"/>
-    <n v="100000"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -1586,7 +1605,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="L10:O12" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1598,8 +1617,8 @@
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="8">
+        <item m="1" x="7"/>
         <item m="1" x="6"/>
-        <item m="1" x="7"/>
         <item x="4"/>
         <item x="2"/>
         <item x="0"/>
@@ -1641,7 +1660,7 @@
     <dataField name="Sum of To be paid" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1658,7 +1677,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="G10:J15" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1670,8 +1689,8 @@
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="8">
+        <item m="1" x="7"/>
         <item m="1" x="6"/>
-        <item m="1" x="7"/>
         <item x="4"/>
         <item x="2"/>
         <item x="0"/>
@@ -1722,7 +1741,7 @@
     <dataField name="Sum of To be paid" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2037,9 +2056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93AF4E1-5F2D-4DF4-8F31-38A7292D9786}">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2278,10 +2295,10 @@
         <v>12</v>
       </c>
       <c r="I11" s="3">
-        <v>16000</v>
+        <v>102919</v>
       </c>
       <c r="J11" s="3">
-        <v>86919</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
         <v>10</v>
@@ -2307,10 +2324,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="2">
+        <v>86919</v>
+      </c>
+      <c r="E12" s="2">
         <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>86919</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -2319,7 +2336,7 @@
         <v>10000</v>
       </c>
       <c r="J12" s="3">
-        <v>164858</v>
+        <v>182358</v>
       </c>
       <c r="L12" t="s">
         <v>5</v>
@@ -2380,7 +2397,7 @@
         <v>6000</v>
       </c>
       <c r="J14" s="3">
-        <v>644200</v>
+        <v>464200</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2403,10 +2420,10 @@
         <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>32000</v>
+        <v>118919</v>
       </c>
       <c r="J15" s="3">
-        <v>931563</v>
+        <v>682144</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2632,32 +2649,42 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>130000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4">
-        <v>44809</v>
+      <c r="B29" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>100000</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -3050,4 +3077,60 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9810F937-ED03-4517-8C29-2669E2BA42A7}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44809</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Expense - Gokul.xlsx
+++ b/Expense - Gokul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vasanth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BC957A-9A64-4C82-B264-1C79ECBCCA4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C811E662-3AA7-40F1-B5E7-A40AF44E4BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{A294C88D-E8FE-41BE-BDC9-7981945DD3D4}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId3"/>
+    <pivotCache cacheId="32" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
   <si>
     <t>Mahal</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Liqu</t>
   </si>
   <si>
-    <t>edu</t>
-  </si>
-  <si>
     <t>rent</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>Iyer</t>
   </si>
   <si>
-    <t>Beeda</t>
-  </si>
-  <si>
     <t>Melam</t>
   </si>
   <si>
@@ -158,6 +152,18 @@
   </si>
   <si>
     <t>Decoration</t>
+  </si>
+  <si>
+    <t>Oil &amp; Beeda</t>
+  </si>
+  <si>
+    <t>Moorthy</t>
+  </si>
+  <si>
+    <t>Edu</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
   </si>
 </sst>
 </file>
@@ -266,7 +272,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
     </dxf>
@@ -962,7 +986,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gokul vasanth" refreshedDate="44801.526963425924" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85" xr:uid="{644EAF68-1F28-416F-A051-7E491DD78820}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gokul vasanth" refreshedDate="44803.51479108796" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85" xr:uid="{644EAF68-1F28-416F-A051-7E491DD78820}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E1048576" sheet="Expenditure"/>
   </cacheSource>
@@ -1016,7 +1040,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="edu"/>
+    <s v="Edu"/>
     <n v="0"/>
     <n v="6445"/>
   </r>
@@ -1046,7 +1070,7 @@
     <x v="2"/>
     <s v="Nithya akka"/>
     <n v="0"/>
-    <n v="200000"/>
+    <n v="50000"/>
   </r>
   <r>
     <x v="1"/>
@@ -1107,9 +1131,9 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <s v="Beeda"/>
+    <s v="Oil &amp; Beeda"/>
+    <n v="15000"/>
     <n v="0"/>
-    <n v="5500"/>
   </r>
   <r>
     <x v="0"/>
@@ -1171,8 +1195,8 @@
     <x v="0"/>
     <x v="3"/>
     <s v="Photo video"/>
-    <n v="0"/>
-    <n v="50000"/>
+    <n v="5000"/>
+    <n v="45000"/>
   </r>
   <r>
     <x v="0"/>
@@ -1210,18 +1234,18 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Moorthy"/>
+    <n v="0"/>
+    <n v="50000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Abhishek"/>
+    <n v="0"/>
+    <n v="100000"/>
   </r>
   <r>
     <x v="2"/>
@@ -1605,7 +1629,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="L10:O12" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1677,7 +1701,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="G10:J15" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2118,7 +2142,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -2135,7 +2159,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -2186,13 +2210,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -2204,7 +2228,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>160000</v>
@@ -2394,10 +2418,10 @@
         <v>44809</v>
       </c>
       <c r="I14" s="3">
-        <v>6000</v>
+        <v>26000</v>
       </c>
       <c r="J14" s="3">
-        <v>464200</v>
+        <v>453700</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2408,7 +2432,7 @@
         <v>44809</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -2420,10 +2444,10 @@
         <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>118919</v>
+        <v>138919</v>
       </c>
       <c r="J15" s="3">
-        <v>682144</v>
+        <v>671644</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2434,13 +2458,13 @@
         <v>44809</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2">
+        <v>15000</v>
+      </c>
+      <c r="E16" s="2">
         <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5500</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2451,7 +2475,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -2469,7 +2493,7 @@
         <v>44809</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -2486,7 +2510,7 @@
         <v>44809</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -2504,7 +2528,7 @@
         <v>44809</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -2524,7 +2548,7 @@
         <v>44809</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -2541,7 +2565,7 @@
         <v>44809</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -2558,7 +2582,7 @@
         <v>44809</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -2575,7 +2599,7 @@
         <v>44809</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
@@ -2592,13 +2616,13 @@
         <v>44809</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E25" s="2">
-        <v>50000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2609,7 +2633,7 @@
         <v>44809</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -2626,7 +2650,7 @@
         <v>44809</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>1000</v>
@@ -2643,7 +2667,7 @@
         <v>44809</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -2660,7 +2684,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -2677,7 +2701,7 @@
         <v>44809</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -2687,18 +2711,38 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>50000</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>100000</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -3121,7 +3165,7 @@
         <v>44809</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>

--- a/Expense - Gokul.xlsx
+++ b/Expense - Gokul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vasanth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C811E662-3AA7-40F1-B5E7-A40AF44E4BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A921723-F5A0-488E-8616-99F4F6B91DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{A294C88D-E8FE-41BE-BDC9-7981945DD3D4}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="32" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -272,31 +272,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
     </dxf>
@@ -986,7 +962,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gokul vasanth" refreshedDate="44803.51479108796" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85" xr:uid="{644EAF68-1F28-416F-A051-7E491DD78820}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gokul vasanth" refreshedDate="44803.807040509259" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85" xr:uid="{644EAF68-1F28-416F-A051-7E491DD78820}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E1048576" sheet="Expenditure"/>
   </cacheSource>
@@ -1017,7 +993,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="160000"/>
     </cacheField>
     <cacheField name="To be paid" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="200000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="115000"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1055,15 +1031,15 @@
     <x v="0"/>
     <x v="0"/>
     <s v="Home Advance"/>
-    <n v="10000"/>
-    <n v="65000"/>
+    <n v="75000"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
     <s v="Saravana"/>
     <n v="0"/>
-    <n v="200000"/>
+    <n v="50000"/>
   </r>
   <r>
     <x v="1"/>
@@ -1153,8 +1129,8 @@
     <x v="0"/>
     <x v="3"/>
     <s v="Icecream"/>
-    <n v="0"/>
-    <n v="12500"/>
+    <n v="2000"/>
+    <n v="8000"/>
   </r>
   <r>
     <x v="0"/>
@@ -1629,7 +1605,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="L10:O12" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1684,7 +1660,7 @@
     <dataField name="Sum of To be paid" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="7">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1701,7 +1677,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="G10:J15" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1765,7 +1741,7 @@
     <dataField name="Sum of To be paid" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2179,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>10000</v>
+        <v>75000</v>
       </c>
       <c r="E5" s="2">
-        <v>65000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2199,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>200000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2334,7 +2310,7 @@
         <v>160000</v>
       </c>
       <c r="O11" s="3">
-        <v>400000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2357,10 +2333,10 @@
         <v>13</v>
       </c>
       <c r="I12" s="3">
-        <v>10000</v>
+        <v>75000</v>
       </c>
       <c r="J12" s="3">
-        <v>182358</v>
+        <v>117358</v>
       </c>
       <c r="L12" t="s">
         <v>5</v>
@@ -2369,7 +2345,7 @@
         <v>160000</v>
       </c>
       <c r="O12" s="3">
-        <v>400000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2418,10 +2394,10 @@
         <v>44809</v>
       </c>
       <c r="I14" s="3">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="J14" s="3">
-        <v>453700</v>
+        <v>449200</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2444,10 +2420,10 @@
         <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>138919</v>
+        <v>205919</v>
       </c>
       <c r="J15" s="3">
-        <v>671644</v>
+        <v>602144</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2513,10 +2489,10 @@
         <v>26</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E19" s="2">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="L19" s="13"/>
     </row>

--- a/Expense - Gokul.xlsx
+++ b/Expense - Gokul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vasanth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A921723-F5A0-488E-8616-99F4F6B91DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9A4470-319C-4A8D-AA47-4CAD27E0021B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{A294C88D-E8FE-41BE-BDC9-7981945DD3D4}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="32" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
   <si>
     <t>Mahal</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Decoration</t>
   </si>
   <si>
-    <t>Oil &amp; Beeda</t>
-  </si>
-  <si>
     <t>Moorthy</t>
   </si>
   <si>
@@ -164,6 +161,18 @@
   </si>
   <si>
     <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Flex/cutout</t>
+  </si>
+  <si>
+    <t>Mukurtha kaal/panthal</t>
+  </si>
+  <si>
+    <t>Radio set</t>
+  </si>
+  <si>
+    <t>Oil,Beeda&amp;Rice</t>
   </si>
 </sst>
 </file>
@@ -246,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -267,12 +276,77 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
     </dxf>
@@ -888,10 +962,10 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -928,7 +1002,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="5162551" y="395287"/>
-              <a:ext cx="3810000" cy="1033463"/>
+              <a:ext cx="3810000" cy="1138238"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -962,7 +1036,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gokul vasanth" refreshedDate="44803.807040509259" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85" xr:uid="{644EAF68-1F28-416F-A051-7E491DD78820}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gokul vasanth" refreshedDate="44805.923365509261" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85" xr:uid="{644EAF68-1F28-416F-A051-7E491DD78820}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E1048576" sheet="Expenditure"/>
   </cacheSource>
@@ -975,15 +1049,17 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2005-09-01T00:00:00" maxDate="2022-09-06T00:00:00" count="8">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2005-09-01T00:00:00" maxDate="2022-09-27T00:00:00" count="10">
         <s v="Sep"/>
         <s v="Oct"/>
         <s v="Aug"/>
+        <d v="2022-09-26T00:00:00"/>
         <d v="2022-09-05T00:00:00"/>
         <m/>
         <d v="2005-09-01T00:00:00" u="1"/>
         <s v="Jun" u="1"/>
         <s v="May" u="1"/>
+        <d v="2020-09-01T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Criteria" numFmtId="0">
@@ -1045,8 +1121,8 @@
     <x v="1"/>
     <x v="2"/>
     <s v="Nithya akka"/>
+    <n v="50000"/>
     <n v="0"/>
-    <n v="50000"/>
   </r>
   <r>
     <x v="1"/>
@@ -1085,136 +1161,136 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <x v="3"/>
     <s v="Pers credit card"/>
     <n v="0"/>
     <n v="15301"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Mahal"/>
     <n v="5000"/>
     <n v="115000"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Iyer"/>
+    <n v="10000"/>
     <n v="0"/>
-    <n v="10000"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
     <s v="Oil &amp; Beeda"/>
     <n v="15000"/>
     <n v="0"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Melam"/>
     <n v="0"/>
     <n v="22000"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Samayal"/>
     <n v="0"/>
     <n v="65000"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Icecream"/>
     <n v="2000"/>
     <n v="8000"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Beautician"/>
     <n v="0"/>
     <n v="20000"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Poo Malai"/>
     <n v="0"/>
     <n v="15000"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Van, car"/>
     <n v="0"/>
-    <n v="30000"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
+    <n v="40000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
     <s v="Mutton kari"/>
-    <n v="0"/>
-    <n v="40000"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
+    <n v="15000"/>
+    <n v="25000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
     <s v="Chicken Kari"/>
     <n v="0"/>
     <n v="14000"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Photo video"/>
     <n v="5000"/>
     <n v="45000"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Cylinder"/>
     <n v="0"/>
-    <n v="7200"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
     <s v="Room"/>
     <n v="1000"/>
     <n v="8000"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="3"/>
+    <x v="4"/>
     <s v="Groceries"/>
+    <n v="40000"/>
     <n v="0"/>
-    <n v="50000"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <s v="Renovation backside"/>
+    <n v="17500"/>
     <n v="0"/>
-    <n v="17500"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
     <s v="Decoration"/>
     <n v="0"/>
+    <n v="15000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Moorthy"/>
+    <n v="50000"/>
     <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="Moorthy"/>
-    <n v="0"/>
-    <n v="50000"/>
   </r>
   <r>
     <x v="1"/>
@@ -1224,379 +1300,379 @@
     <n v="100000"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="0"/>
     <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Flex/cutout"/>
+    <n v="1000"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
+    <s v="Mukurtha kaal/panthal"/>
+    <n v="2000"/>
+    <n v="3000"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
+    <s v="Radio set"/>
+    <n v="0"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -1605,7 +1681,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="L10:O12" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1616,14 +1692,16 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="8">
+      <items count="10">
+        <item m="1" x="8"/>
         <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item x="4"/>
+        <item x="5"/>
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item x="4"/>
+        <item m="1" x="9"/>
         <item x="3"/>
       </items>
     </pivotField>
@@ -1660,7 +1738,7 @@
     <dataField name="Sum of To be paid" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1677,7 +1755,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="G10:J15" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1688,14 +1766,16 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="8">
+      <items count="10">
+        <item m="1" x="8"/>
         <item m="1" x="7"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
         <item m="1" x="6"/>
         <item x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="5"/>
+        <item m="1" x="9"/>
         <item x="3"/>
       </items>
     </pivotField>
@@ -1716,10 +1796,10 @@
       <x v="4"/>
     </i>
     <i r="1">
-      <x v="5"/>
+      <x v="7"/>
     </i>
     <i r="1">
-      <x v="7"/>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -1740,9 +1820,28 @@
     <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Sum of To be paid" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="5">
+  <formats count="4">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0" selected="0"/>
+          <reference field="1" count="4">
+            <x v="3"/>
+            <x v="4"/>
+            <x v="7"/>
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -2060,12 +2159,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="5" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="11" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.85546875" customWidth="1"/>
@@ -2079,7 +2179,7 @@
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -2091,13 +2191,13 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2114,11 +2214,11 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -2131,7 +2231,7 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2148,7 +2248,7 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2165,7 +2265,7 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2182,17 +2282,17 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E7" s="2">
         <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>50000</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -2200,7 +2300,7 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2217,7 +2317,7 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2234,7 +2334,7 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2249,7 +2349,7 @@
       <c r="G10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="15" t="s">
         <v>1</v>
       </c>
       <c r="I10" t="s">
@@ -2276,7 +2376,7 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2291,7 +2391,7 @@
       <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="3">
@@ -2307,17 +2407,17 @@
         <v>12</v>
       </c>
       <c r="N11" s="3">
-        <v>160000</v>
+        <v>260000</v>
       </c>
       <c r="O11" s="3">
-        <v>250000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2329,31 +2429,31 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="3">
-        <v>75000</v>
+        <v>92500</v>
       </c>
       <c r="J12" s="3">
-        <v>117358</v>
+        <v>84557</v>
       </c>
       <c r="L12" t="s">
         <v>5</v>
       </c>
       <c r="N12" s="3">
-        <v>160000</v>
+        <v>260000</v>
       </c>
       <c r="O12" s="3">
-        <v>250000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
+      <c r="B13" s="19">
+        <v>44830</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
@@ -2364,21 +2464,21 @@
       <c r="E13" s="2">
         <v>15301</v>
       </c>
-      <c r="H13" t="s">
-        <v>17</v>
+      <c r="H13" s="16">
+        <v>44809</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>96000</v>
       </c>
       <c r="J13" s="3">
-        <v>35586</v>
+        <v>406000</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="19">
         <v>44809</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2390,54 +2490,54 @@
       <c r="E14" s="2">
         <v>115000</v>
       </c>
-      <c r="H14" s="14">
-        <v>44809</v>
+      <c r="H14" s="16">
+        <v>44830</v>
       </c>
       <c r="I14" s="3">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>449200</v>
+        <v>15301</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="19">
         <v>44809</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="2">
         <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>10000</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>205919</v>
+        <v>291419</v>
       </c>
       <c r="J15" s="3">
-        <v>602144</v>
+        <v>505858</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="19">
         <v>44809</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -2447,7 +2547,7 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="19">
         <v>44809</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2465,7 +2565,7 @@
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="19">
         <v>44809</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -2477,12 +2577,13 @@
       <c r="E18" s="2">
         <v>65000</v>
       </c>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="19">
         <v>44809</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2500,7 +2601,7 @@
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="19">
         <v>44809</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2513,14 +2614,14 @@
         <v>20000</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="19">
         <v>44809</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -2537,7 +2638,7 @@
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="19">
         <v>44809</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2547,31 +2648,31 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="19">
         <v>44809</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E23" s="2">
-        <v>40000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="19">
         <v>44809</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2588,7 +2689,7 @@
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="19">
         <v>44809</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2605,7 +2706,7 @@
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="19">
         <v>44809</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -2615,14 +2716,14 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>7200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="19">
         <v>44809</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2639,41 +2740,41 @@
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="19">
         <v>44809</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="2">
+        <v>40000</v>
+      </c>
+      <c r="E28" s="2">
         <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>50000</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="2">
+        <v>17500</v>
+      </c>
+      <c r="E29" s="2">
         <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>17500</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="19">
         <v>44809</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -2683,35 +2784,35 @@
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E31" s="2">
         <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>50000</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -2721,372 +2822,402 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="19">
+        <v>44809</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1000</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="19">
+        <v>44809</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3000</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="19">
+        <v>44809</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5000</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="4"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="4"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="4"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="4"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="12"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="4"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="4"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="4"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="4"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="4"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="4"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="4"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="7"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="4"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="7"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="4"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="7"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="7"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="4"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="7"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="7"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="4"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="7"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="7"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="4"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="7"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="7"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="4"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="7"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="7"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="7"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="7"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="7"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="7"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="7"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="7"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="7"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="7"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="4"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="7"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="4"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="7"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="4"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="7"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="4"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="7"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="4"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="7"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="7"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="4"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="7"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="4"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="7"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="4"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="7"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="7"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="4"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="7"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="7"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="4"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="7"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="4"/>
+      <c r="B83" s="19"/>
       <c r="C83" s="7"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="4"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="7"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="4"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="7"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>

--- a/Expense - Gokul.xlsx
+++ b/Expense - Gokul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vasanth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9A4470-319C-4A8D-AA47-4CAD27E0021B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A302667-7165-4FBE-90EF-AB2100EDD3C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{A294C88D-E8FE-41BE-BDC9-7981945DD3D4}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="32" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>Mahal</t>
   </si>
@@ -298,7 +298,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left"/>
     </dxf>
@@ -312,55 +315,13 @@
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+      <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+      <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+      <alignment horizontal="left"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
@@ -1001,8 +962,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5162551" y="395287"/>
-              <a:ext cx="3810000" cy="1138238"/>
+              <a:off x="4800601" y="395287"/>
+              <a:ext cx="3838575" cy="1138238"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1681,7 +1642,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F0CEFE-04D8-4F35-AF3B-1F36BE449775}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="L10:O12" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1738,7 +1699,7 @@
     <dataField name="Sum of To be paid" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="20">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1755,8 +1716,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="G10:J15" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CE44006-1698-48BA-9983-D0F3B6C2A843}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="G10:J16" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="3">
@@ -1772,7 +1733,7 @@
         <item x="5"/>
         <item x="2"/>
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item m="1" x="6"/>
         <item x="4"/>
         <item m="1" x="9"/>
@@ -1787,13 +1748,16 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="6">
     <i>
       <x/>
       <x v="3"/>
     </i>
     <i r="1">
       <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
     </i>
     <i r="1">
       <x v="7"/>
@@ -1821,16 +1785,16 @@
     <dataField name="Sum of To be paid" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="21">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="7">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0" selected="0"/>
@@ -2165,7 +2129,7 @@
     <col min="4" max="5" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.85546875" customWidth="1"/>
@@ -2464,14 +2428,14 @@
       <c r="E13" s="2">
         <v>15301</v>
       </c>
-      <c r="H13" s="16">
-        <v>44809</v>
+      <c r="H13" t="s">
+        <v>17</v>
       </c>
       <c r="I13" s="3">
-        <v>96000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>406000</v>
+        <v>35586</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2491,13 +2455,13 @@
         <v>115000</v>
       </c>
       <c r="H14" s="16">
-        <v>44830</v>
+        <v>44809</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>96000</v>
       </c>
       <c r="J14" s="3">
-        <v>15301</v>
+        <v>406000</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2516,14 +2480,14 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>5</v>
+      <c r="H15" s="16">
+        <v>44830</v>
       </c>
       <c r="I15" s="3">
-        <v>291419</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>505858</v>
+        <v>15301</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2541,6 +2505,15 @@
       </c>
       <c r="E16" s="2">
         <v>0</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3">
+        <v>291419</v>
+      </c>
+      <c r="J16" s="3">
+        <v>541444</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
